--- a/ScienceSaturday07/raw_data.xlsx
+++ b/ScienceSaturday07/raw_data.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr1015bob/temp/ScienceSaturday/ScienceSaturday07/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA6789-457E-A54A-9F40-7AEB3987D2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Template" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Rachel" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Roberto" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Jo" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Heather" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tyler" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Jenna" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="MattB" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Keira" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Elaine" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Chris" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Dave" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Megan" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Jeff" sheetId="14" r:id="rId17"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Rachel" sheetId="2" r:id="rId2"/>
+    <sheet name="Roberto" sheetId="3" r:id="rId3"/>
+    <sheet name="Jo" sheetId="4" r:id="rId4"/>
+    <sheet name="Heather" sheetId="5" r:id="rId5"/>
+    <sheet name="Tyler" sheetId="6" r:id="rId6"/>
+    <sheet name="Jenna" sheetId="7" r:id="rId7"/>
+    <sheet name="MattB" sheetId="8" r:id="rId8"/>
+    <sheet name="Keira" sheetId="9" r:id="rId9"/>
+    <sheet name="Elaine" sheetId="10" r:id="rId10"/>
+    <sheet name="Chris" sheetId="11" r:id="rId11"/>
+    <sheet name="Dave" sheetId="12" r:id="rId12"/>
+    <sheet name="Megan" sheetId="13" r:id="rId13"/>
+    <sheet name="Jeff" sheetId="14" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="167">
   <si>
     <t>Guesser</t>
   </si>
@@ -371,25 +380,10 @@
     <t>not confident at all, on verge of emotional breakdown, palette clense</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>"so bad, oh god!"</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>pc</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>pallette clense before</t>
@@ -545,43 +539,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFF7981D"/>
-    </font>
-    <font/>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -591,7 +596,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,7 +672,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -681,363 +692,193 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1227,58 +1068,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="19.43"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="17.86"/>
-    <col customWidth="1" min="11" max="11" width="18.86"/>
-    <col customWidth="1" min="12" max="12" width="12.57"/>
-    <col customWidth="1" min="13" max="13" width="16.57"/>
-    <col customWidth="1" min="14" max="14" width="17.86"/>
-    <col customWidth="1" min="15" max="15" width="19.14"/>
-    <col customWidth="1" min="16" max="16" width="12.71"/>
-    <col customWidth="1" min="17" max="17" width="16.43"/>
-    <col customWidth="1" min="18" max="18" width="17.86"/>
-    <col customWidth="1" min="19" max="19" width="18.57"/>
-    <col customWidth="1" min="20" max="20" width="13.71"/>
-    <col customWidth="1" min="21" max="21" width="17.0"/>
-    <col customWidth="1" min="22" max="22" width="18.29"/>
-    <col customWidth="1" min="23" max="23" width="18.86"/>
-    <col customWidth="1" min="25" max="25" width="16.86"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1163,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1192,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1425,9 +1269,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>35</v>
@@ -1456,9 +1300,9 @@
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>36</v>
@@ -1487,9 +1331,9 @@
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>35</v>
@@ -1518,9 +1362,9 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>37</v>
@@ -1549,9 +1393,9 @@
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>35</v>
@@ -1580,9 +1424,9 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1609,9 +1453,9 @@
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1638,9 +1482,9 @@
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1667,9 +1511,9 @@
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1696,9 +1540,9 @@
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1725,9 +1569,9 @@
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1754,9 +1598,9 @@
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1783,9 +1627,9 @@
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1812,9 +1656,9 @@
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1841,9 +1685,9 @@
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1870,7 +1714,7 @@
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="29" t="str">
         <f>Rachel!B4</f>
@@ -1892,14 +1736,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="str">
         <f>Rachel!B1</f>
         <v>Rachel</v>
       </c>
       <c r="B27" s="35">
         <f>Rachel!D24</f>
-        <v>0.1333333333</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="5">
@@ -1910,50 +1754,50 @@
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="str">
         <f>Roberto!B1</f>
         <v>Roberto</v>
       </c>
       <c r="B28" s="9">
         <f>Roberto!D24</f>
-        <v>0.4666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="5">
         <f>Roberto!H24</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="38" t="str">
         <f>Jo!B1</f>
         <v>Jo</v>
       </c>
       <c r="B29" s="9">
         <f>Jo!D24</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C29" s="10">
         <f>Jo!H24</f>
-        <v>0.7333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="39" t="str">
         <f>Heather!B1</f>
         <v>Heather</v>
       </c>
       <c r="B30" s="9">
         <f>Heather!D24</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="5">
@@ -1964,14 +1808,14 @@
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="40" t="str">
         <f>Tyler!B1</f>
         <v>Tyler</v>
       </c>
       <c r="B31" s="9">
         <f>Tyler!D24</f>
-        <v>0.9333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -1979,17 +1823,17 @@
       <c r="F31" s="13"/>
       <c r="G31" s="14">
         <f>Tyler!H24</f>
-        <v>0.6666666667</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="41" t="str">
         <f>Jenna!B1</f>
         <v>Jenna</v>
       </c>
       <c r="B32" s="9">
         <f>Jenna!D24</f>
-        <v>0.4666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
@@ -1997,28 +1841,28 @@
       <c r="F32" s="13"/>
       <c r="G32" s="14">
         <f>Jenna!H24</f>
-        <v>0.7333333333</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="42" t="str">
         <f>MattB!B1</f>
         <v>Matthew</v>
       </c>
       <c r="B33" s="9">
         <f>MattB!D24</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="5">
         <f>MattB!H24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="43" t="str">
         <f>Keira!B1</f>
         <v>Keira</v>
@@ -2030,7 +1874,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="5">
         <f>Keira!I24</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
@@ -2039,56 +1883,56 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="44" t="str">
         <f>Elaine!B1</f>
-        <v>Elaine </v>
+        <v xml:space="preserve">Elaine </v>
       </c>
       <c r="B35" s="9">
         <f>Elaine!D24</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="5">
         <f>Elaine!H24</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="29" t="str">
         <f>Chris!B1</f>
         <v>Chris</v>
       </c>
       <c r="B36" s="9">
         <f>Chris!D24</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="5">
         <f>Chris!H24</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="str">
         <f>Dave!B1</f>
         <v>Dave</v>
       </c>
       <c r="B37" s="9">
         <f>Dave!D24</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="6">
         <f>Dave!H24</f>
-        <v>0.7333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="F37" s="13">
         <f>Dave!L24</f>
@@ -2096,7 +1940,7 @@
       </c>
       <c r="G37" s="14"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="38" t="str">
         <f>Megan!B1</f>
         <v>Megan</v>
@@ -2109,15 +1953,15 @@
       <c r="D38" s="11"/>
       <c r="E38" s="6">
         <f>Megan!I24</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F38" s="13">
         <f>Megan!N24</f>
-        <v>0.06666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G38" s="14"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="39" t="str">
         <f>Jeff!B1</f>
         <v>Jeff</v>
@@ -2126,90 +1970,91 @@
       <c r="C39" s="10"/>
       <c r="D39" s="5">
         <f>Jeff!H24</f>
-        <v>0.06666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E39" s="6">
         <f>Jeff!D24</f>
-        <v>0.2666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="46">
-        <f t="shared" ref="B41:G41" si="1">AVERAGE(B27:B39) * 100</f>
-        <v>46.11111111</v>
+        <f t="shared" ref="B41:G41" si="0">AVERAGE(B27:B39) * 100</f>
+        <v>46.111111111111121</v>
       </c>
       <c r="C41" s="46">
-        <f t="shared" si="1"/>
-        <v>73.33333333</v>
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
       </c>
       <c r="D41" s="46">
-        <f t="shared" si="1"/>
-        <v>59.16666667</v>
+        <f t="shared" si="0"/>
+        <v>51.770833333333336</v>
       </c>
       <c r="E41" s="46">
-        <f t="shared" si="1"/>
-        <v>44.44444444</v>
+        <f t="shared" si="0"/>
+        <v>44.444444444444443</v>
       </c>
       <c r="F41" s="46">
-        <f t="shared" si="1"/>
-        <v>33.33333333</v>
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
       </c>
       <c r="G41" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.86"/>
-    <col customWidth="1" min="6" max="6" width="18.71"/>
-    <col customWidth="1" min="7" max="7" width="18.86"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -2226,24 +2071,24 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="54">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -2272,9 +2117,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>43</v>
@@ -2283,7 +2128,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
@@ -2294,14 +2139,14 @@
         <v>45</v>
       </c>
       <c r="H7" s="62" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="55"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>48</v>
@@ -2310,7 +2155,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="53"/>
@@ -2321,14 +2166,14 @@
         <v>44</v>
       </c>
       <c r="H8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="55"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>44</v>
@@ -2337,7 +2182,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="53"/>
@@ -2348,14 +2193,14 @@
         <v>48</v>
       </c>
       <c r="H9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="55"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>43</v>
@@ -2364,7 +2209,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
@@ -2375,14 +2220,14 @@
         <v>45</v>
       </c>
       <c r="H10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="55"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>46</v>
@@ -2391,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="53"/>
@@ -2402,14 +2247,14 @@
         <v>48</v>
       </c>
       <c r="H11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="55"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>46</v>
@@ -2418,7 +2263,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="53"/>
@@ -2429,14 +2274,14 @@
         <v>44</v>
       </c>
       <c r="H12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="55"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>44</v>
@@ -2445,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="53"/>
@@ -2456,14 +2301,14 @@
         <v>43</v>
       </c>
       <c r="H13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>44</v>
@@ -2472,7 +2317,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="53"/>
@@ -2483,14 +2328,14 @@
         <v>45</v>
       </c>
       <c r="H14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="55"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>49</v>
@@ -2499,7 +2344,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="53"/>
@@ -2510,14 +2355,14 @@
         <v>48</v>
       </c>
       <c r="H15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="55"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>43</v>
@@ -2526,7 +2371,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="53"/>
@@ -2537,14 +2382,14 @@
         <v>48</v>
       </c>
       <c r="H16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="55"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>44</v>
@@ -2553,7 +2398,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="53"/>
@@ -2564,14 +2409,14 @@
         <v>45</v>
       </c>
       <c r="H17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="55"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>44</v>
@@ -2580,7 +2425,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="53"/>
@@ -2591,14 +2436,14 @@
         <v>44</v>
       </c>
       <c r="H18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>48</v>
@@ -2607,7 +2452,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
@@ -2618,14 +2463,14 @@
         <v>44</v>
       </c>
       <c r="H19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>46</v>
@@ -2634,7 +2479,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="53"/>
@@ -2645,14 +2490,14 @@
         <v>43</v>
       </c>
       <c r="H20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>49</v>
@@ -2661,7 +2506,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="53"/>
@@ -2672,16 +2517,16 @@
         <v>43</v>
       </c>
       <c r="H21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>5</v>
@@ -2691,62 +2536,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="15.43"/>
-    <col customWidth="1" min="5" max="5" width="16.57"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="19.43"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -2763,24 +2609,24 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="54">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -2809,9 +2655,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>44</v>
@@ -2820,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="53"/>
@@ -2831,14 +2677,14 @@
         <v>43</v>
       </c>
       <c r="H7" s="62" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="55"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>49</v>
@@ -2847,7 +2693,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="53"/>
@@ -2858,14 +2704,14 @@
         <v>45</v>
       </c>
       <c r="H8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="55"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>49</v>
@@ -2874,7 +2720,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="53"/>
@@ -2885,14 +2731,14 @@
         <v>43</v>
       </c>
       <c r="H9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="55"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>43</v>
@@ -2901,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="53"/>
@@ -2912,14 +2758,14 @@
         <v>48</v>
       </c>
       <c r="H10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="55"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>43</v>
@@ -2928,7 +2774,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="53"/>
@@ -2939,14 +2785,14 @@
         <v>43</v>
       </c>
       <c r="H11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="55"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>48</v>
@@ -2955,7 +2801,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="53"/>
@@ -2966,14 +2812,14 @@
         <v>45</v>
       </c>
       <c r="H12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="55"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>46</v>
@@ -2982,7 +2828,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="53"/>
@@ -2993,14 +2839,14 @@
         <v>45</v>
       </c>
       <c r="H13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>43</v>
@@ -3009,7 +2855,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="53"/>
@@ -3020,14 +2866,14 @@
         <v>43</v>
       </c>
       <c r="H14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="55"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>49</v>
@@ -3036,7 +2882,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="53"/>
@@ -3047,14 +2893,14 @@
         <v>43</v>
       </c>
       <c r="H15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="55"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>46</v>
@@ -3063,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="53"/>
@@ -3074,14 +2920,14 @@
         <v>48</v>
       </c>
       <c r="H16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="55"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>46</v>
@@ -3090,7 +2936,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="53"/>
@@ -3101,14 +2947,14 @@
         <v>45</v>
       </c>
       <c r="H17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="55"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="89" t="s">
         <v>46</v>
@@ -3117,7 +2963,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="53"/>
@@ -3128,14 +2974,14 @@
         <v>43</v>
       </c>
       <c r="H18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>48</v>
@@ -3144,7 +2990,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
@@ -3155,14 +3001,14 @@
         <v>44</v>
       </c>
       <c r="H19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>44</v>
@@ -3171,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="53"/>
@@ -3182,14 +3028,14 @@
         <v>45</v>
       </c>
       <c r="H20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>49</v>
@@ -3198,7 +3044,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="53"/>
@@ -3209,16 +3055,16 @@
         <v>43</v>
       </c>
       <c r="H21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>10</v>
@@ -3228,64 +3074,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="18.86"/>
-    <col customWidth="1" min="3" max="3" width="19.86"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="21.0"/>
-    <col customWidth="1" min="7" max="7" width="19.71"/>
-    <col customWidth="1" min="9" max="9" width="46.71"/>
-    <col customWidth="1" min="13" max="13" width="23.29"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="46.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
       <c r="J3" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="91" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3310,30 +3157,30 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="92">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
       <c r="J5" s="94">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
       <c r="M5" s="95"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -3344,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>14</v>
@@ -3356,7 +3203,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I6" s="96" t="s">
         <v>26</v>
@@ -3368,15 +3215,15 @@
         <v>28</v>
       </c>
       <c r="L6" s="99" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M6" s="98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>44</v>
@@ -3385,7 +3232,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="50" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
@@ -3396,7 +3243,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="92" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="93"/>
@@ -3407,14 +3254,14 @@
         <v>49</v>
       </c>
       <c r="L7" s="94" t="b">
-        <f t="shared" ref="L7:L21" si="3">J7=K7</f>
+        <f t="shared" ref="L7:L21" si="2">J7=K7</f>
         <v>0</v>
       </c>
       <c r="M7" s="100"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>44</v>
@@ -3423,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="53"/>
@@ -3434,11 +3281,11 @@
         <v>48</v>
       </c>
       <c r="H8" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J8" s="94" t="s">
         <v>44</v>
@@ -3447,16 +3294,16 @@
         <v>48</v>
       </c>
       <c r="L8" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>46</v>
@@ -3465,7 +3312,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="53"/>
@@ -3476,7 +3323,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="93"/>
@@ -3487,16 +3334,16 @@
         <v>44</v>
       </c>
       <c r="L9" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M9" s="101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>49</v>
@@ -3505,40 +3352,40 @@
         <v>44</v>
       </c>
       <c r="D10" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H10" s="92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="94" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I10" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="94" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="M10" s="101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>48</v>
@@ -3547,7 +3394,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="53"/>
@@ -3558,27 +3405,27 @@
         <v>44</v>
       </c>
       <c r="H11" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="93"/>
       <c r="J11" s="94" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L11" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M11" s="101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>43</v>
@@ -3587,7 +3434,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="53"/>
@@ -3598,11 +3445,11 @@
         <v>48</v>
       </c>
       <c r="H12" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J12" s="94" t="s">
         <v>48</v>
@@ -3611,16 +3458,16 @@
         <v>48</v>
       </c>
       <c r="L12" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12" s="101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>49</v>
@@ -3629,22 +3476,22 @@
         <v>49</v>
       </c>
       <c r="D13" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G13" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H13" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J13" s="94" t="s">
         <v>46</v>
@@ -3653,14 +3500,14 @@
         <v>44</v>
       </c>
       <c r="L13" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="100"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>46</v>
@@ -3669,7 +3516,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="53"/>
@@ -3680,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="93"/>
@@ -3691,16 +3538,16 @@
         <v>46</v>
       </c>
       <c r="L14" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M14" s="101" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>48</v>
@@ -3709,7 +3556,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="53"/>
@@ -3720,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="93"/>
@@ -3731,16 +3578,16 @@
         <v>43</v>
       </c>
       <c r="L15" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>44</v>
@@ -3749,7 +3596,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="53"/>
@@ -3760,11 +3607,11 @@
         <v>46</v>
       </c>
       <c r="H16" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J16" s="94" t="s">
         <v>49</v>
@@ -3773,16 +3620,16 @@
         <v>49</v>
       </c>
       <c r="L16" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M16" s="101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>43</v>
@@ -3791,22 +3638,22 @@
         <v>43</v>
       </c>
       <c r="D17" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H17" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J17" s="94" t="s">
         <v>48</v>
@@ -3815,14 +3662,14 @@
         <v>48</v>
       </c>
       <c r="L17" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" s="100"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="89" t="s">
         <v>46</v>
@@ -3831,7 +3678,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="53"/>
@@ -3842,7 +3689,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="93"/>
@@ -3853,16 +3700,16 @@
         <v>43</v>
       </c>
       <c r="L18" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>44</v>
@@ -3871,7 +3718,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
@@ -3882,11 +3729,11 @@
         <v>43</v>
       </c>
       <c r="H19" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J19" s="94" t="s">
         <v>49</v>
@@ -3895,16 +3742,16 @@
         <v>49</v>
       </c>
       <c r="L19" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" s="101" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>48</v>
@@ -3913,7 +3760,7 @@
         <v>48</v>
       </c>
       <c r="D20" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="53"/>
@@ -3924,7 +3771,7 @@
         <v>48</v>
       </c>
       <c r="H20" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="93"/>
@@ -3935,16 +3782,16 @@
         <v>44</v>
       </c>
       <c r="L20" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M20" s="101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>43</v>
@@ -3953,7 +3800,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="53"/>
@@ -3964,7 +3811,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I21" s="93"/>
@@ -3972,45 +3819,45 @@
         <v>43</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L21" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="100"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="C23" s="103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D23" s="65">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>8</v>
       </c>
       <c r="G23" s="103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H23" s="65">
         <f>COUNTIF(H7:H21,TRUE)</f>
         <v>11</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L23" s="65">
         <f>COUNTIF(L7:L21,TRUE)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="D24" s="65">
         <f>D23/15</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H24" s="65">
         <f>H23/15</f>
-        <v>0.7333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="L24" s="65">
         <f>L23/15</f>
@@ -4018,53 +3865,54 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="4" width="18.86"/>
-    <col customWidth="1" min="5" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="7" width="18.86"/>
-    <col customWidth="1" min="8" max="8" width="19.86"/>
-    <col customWidth="1" min="11" max="11" width="23.0"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
       <c r="L3" s="103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4079,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4092,33 +3940,33 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="104" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="92">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
       <c r="J5" s="93"/>
       <c r="K5" s="93"/>
       <c r="L5" s="94">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
       <c r="O5" s="95"/>
       <c r="P5" s="95"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4129,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>13</v>
@@ -4144,7 +3992,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>25</v>
@@ -4159,7 +4007,7 @@
         <v>28</v>
       </c>
       <c r="N6" s="99" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>29</v>
@@ -4168,9 +4016,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>37</v>
@@ -4179,7 +4027,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="50" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="53"/>
@@ -4191,7 +4039,7 @@
         <v>66</v>
       </c>
       <c r="I7" s="92" t="b">
-        <f t="shared" ref="I7:I21" si="2">G7=H7</f>
+        <f t="shared" ref="I7:I21" si="1">G7=H7</f>
         <v>1</v>
       </c>
       <c r="J7" s="93"/>
@@ -4203,15 +4051,15 @@
         <v>35</v>
       </c>
       <c r="N7" s="94" t="b">
-        <f t="shared" ref="N7:N21" si="3">L7=M7</f>
+        <f t="shared" ref="N7:N21" si="2">L7=M7</f>
         <v>1</v>
       </c>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>36</v>
@@ -4220,7 +4068,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="53"/>
@@ -4232,27 +4080,27 @@
         <v>36</v>
       </c>
       <c r="I8" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="93"/>
       <c r="K8" s="93"/>
       <c r="L8" s="94" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M8" s="94" t="s">
         <v>37</v>
       </c>
       <c r="N8" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="95"/>
       <c r="P8" s="95"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>66</v>
@@ -4261,7 +4109,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="53"/>
@@ -4270,10 +4118,10 @@
         <v>65</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I9" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="93"/>
@@ -4282,18 +4130,18 @@
         <v>65</v>
       </c>
       <c r="M9" s="94" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N9" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="95"/>
       <c r="P9" s="95"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>66</v>
@@ -4302,12 +4150,12 @@
         <v>66</v>
       </c>
       <c r="D10" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="53"/>
       <c r="F10" s="50" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G10" s="92" t="s">
         <v>36</v>
@@ -4316,7 +4164,7 @@
         <v>65</v>
       </c>
       <c r="I10" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="93"/>
@@ -4328,15 +4176,15 @@
         <v>66</v>
       </c>
       <c r="N10" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>35</v>
@@ -4345,7 +4193,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="53"/>
@@ -4357,7 +4205,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="93"/>
@@ -4369,15 +4217,15 @@
         <v>35</v>
       </c>
       <c r="N11" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="95"/>
       <c r="P11" s="95"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>65</v>
@@ -4386,7 +4234,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="53"/>
@@ -4398,29 +4246,29 @@
         <v>35</v>
       </c>
       <c r="I12" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
       <c r="L12" s="94" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M12" s="94" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>35</v>
@@ -4429,7 +4277,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="53"/>
@@ -4438,10 +4286,10 @@
         <v>35</v>
       </c>
       <c r="H13" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I13" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="93"/>
@@ -4453,15 +4301,15 @@
         <v>66</v>
       </c>
       <c r="N13" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="95"/>
       <c r="P13" s="95"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>65</v>
@@ -4470,7 +4318,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="53"/>
@@ -4482,7 +4330,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="93"/>
@@ -4494,15 +4342,15 @@
         <v>37</v>
       </c>
       <c r="N14" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>35</v>
@@ -4511,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
@@ -4520,32 +4368,32 @@
         <v>65</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I15" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="92" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L15" s="94" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M15" s="94" t="s">
         <v>37</v>
       </c>
       <c r="N15" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="95"/>
       <c r="P15" s="95"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>37</v>
@@ -4554,7 +4402,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="53"/>
@@ -4566,7 +4414,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="93"/>
@@ -4578,15 +4426,15 @@
         <v>65</v>
       </c>
       <c r="N16" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="95"/>
       <c r="P16" s="95"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>36</v>
@@ -4595,24 +4443,24 @@
         <v>66</v>
       </c>
       <c r="D17" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I17" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="92" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L17" s="94" t="s">
         <v>66</v>
@@ -4621,15 +4469,15 @@
         <v>35</v>
       </c>
       <c r="N17" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="95"/>
       <c r="P17" s="95"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>66</v>
@@ -4638,7 +4486,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="53"/>
@@ -4647,15 +4495,15 @@
         <v>35</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I18" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="92" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L18" s="94" t="s">
         <v>66</v>
@@ -4664,15 +4512,15 @@
         <v>65</v>
       </c>
       <c r="N18" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="95"/>
       <c r="P18" s="95"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>36</v>
@@ -4681,12 +4529,12 @@
         <v>66</v>
       </c>
       <c r="D19" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G19" s="92" t="s">
         <v>35</v>
@@ -4695,7 +4543,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="93"/>
@@ -4707,15 +4555,15 @@
         <v>37</v>
       </c>
       <c r="N19" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="95"/>
       <c r="P19" s="95"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>66</v>
@@ -4724,19 +4572,19 @@
         <v>36</v>
       </c>
       <c r="D20" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I20" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="93"/>
@@ -4748,15 +4596,15 @@
         <v>66</v>
       </c>
       <c r="N20" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="95"/>
       <c r="P20" s="95"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>37</v>
@@ -4765,24 +4613,24 @@
         <v>37</v>
       </c>
       <c r="D21" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I21" s="92" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21" s="93"/>
       <c r="K21" s="92" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L21" s="94" t="s">
         <v>35</v>
@@ -4791,85 +4639,86 @@
         <v>36</v>
       </c>
       <c r="N21" s="94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="95"/>
       <c r="P21" s="95"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="C23" s="103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D23" s="65">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>6</v>
       </c>
       <c r="H23" s="103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I23" s="65">
         <f>COUNTIF(I7:I21,TRUE)</f>
         <v>5</v>
       </c>
       <c r="M23" s="103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N23" s="65">
         <f>COUNTIF(N7:N21,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="D24" s="65">
         <f>D23/15</f>
         <v>0.4</v>
       </c>
       <c r="I24" s="65">
         <f>I23/15</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N24" s="65">
         <f>N23/15</f>
-        <v>0.06666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="20.0"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
-    <col customWidth="1" min="8" max="9" width="18.0"/>
-    <col customWidth="1" min="10" max="10" width="18.86"/>
-    <col customWidth="1" min="11" max="11" width="20.71"/>
-    <col customWidth="1" min="12" max="12" width="20.29"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -4877,43 +4726,43 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="70"/>
       <c r="F4" s="54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="93"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="71">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="54">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="55"/>
@@ -4922,7 +4771,7 @@
       <c r="K5" s="93"/>
       <c r="L5" s="93"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -4964,18 +4813,18 @@
       <c r="O6" s="106"/>
       <c r="P6" s="106"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="71" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="72"/>
@@ -4986,7 +4835,7 @@
         <v>74</v>
       </c>
       <c r="H7" s="54" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="81"/>
@@ -4994,18 +4843,18 @@
       <c r="K7" s="93"/>
       <c r="L7" s="93"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="72"/>
@@ -5016,7 +4865,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="81"/>
@@ -5024,18 +4873,18 @@
       <c r="K8" s="93"/>
       <c r="L8" s="93"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="72"/>
@@ -5046,7 +4895,7 @@
         <v>66</v>
       </c>
       <c r="H9" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="81"/>
@@ -5054,9 +4903,9 @@
       <c r="K9" s="93"/>
       <c r="L9" s="93"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>65</v>
@@ -5065,11 +4914,11 @@
         <v>65</v>
       </c>
       <c r="D10" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>74</v>
@@ -5078,19 +4927,19 @@
         <v>66</v>
       </c>
       <c r="H10" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="71" t="s">
         <v>65</v>
@@ -5099,11 +4948,11 @@
         <v>36</v>
       </c>
       <c r="D11" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>74</v>
@@ -5112,7 +4961,7 @@
         <v>66</v>
       </c>
       <c r="H11" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="81"/>
@@ -5120,18 +4969,18 @@
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="72"/>
@@ -5142,7 +4991,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="81"/>
@@ -5150,9 +4999,9 @@
       <c r="K12" s="93"/>
       <c r="L12" s="93"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="71" t="s">
         <v>36</v>
@@ -5161,7 +5010,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="72"/>
@@ -5172,19 +5021,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J13" s="93"/>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>65</v>
@@ -5193,11 +5042,11 @@
         <v>36</v>
       </c>
       <c r="D14" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>66</v>
@@ -5206,7 +5055,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="81"/>
@@ -5214,18 +5063,18 @@
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="72"/>
@@ -5236,7 +5085,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="81"/>
@@ -5244,9 +5093,9 @@
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="71" t="s">
         <v>36</v>
@@ -5255,7 +5104,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="72"/>
@@ -5266,19 +5115,19 @@
         <v>66</v>
       </c>
       <c r="H16" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>65</v>
@@ -5287,11 +5136,11 @@
         <v>36</v>
       </c>
       <c r="D17" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>66</v>
@@ -5300,7 +5149,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="81"/>
@@ -5308,9 +5157,9 @@
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="71" t="s">
         <v>35</v>
@@ -5319,7 +5168,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="72"/>
@@ -5330,7 +5179,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="81"/>
@@ -5338,9 +5187,9 @@
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="71" t="s">
         <v>35</v>
@@ -5349,7 +5198,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="72"/>
@@ -5360,7 +5209,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="81"/>
@@ -5368,18 +5217,18 @@
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C20" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="72"/>
@@ -5390,19 +5239,19 @@
         <v>35</v>
       </c>
       <c r="H20" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J20" s="93"/>
       <c r="K20" s="93"/>
       <c r="L20" s="93"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="71" t="s">
         <v>36</v>
@@ -5411,7 +5260,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="72"/>
@@ -5422,17 +5271,17 @@
         <v>35</v>
       </c>
       <c r="H21" s="54" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J21" s="93"/>
       <c r="K21" s="93"/>
       <c r="L21" s="93"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="D23" s="65">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>4</v>
@@ -5442,42 +5291,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="D24" s="65">
         <f>D23/15</f>
-        <v>0.2666666667</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H24" s="65">
         <f>H23/15</f>
-        <v>0.06666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="2" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="29.0"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="17.43"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5485,7 +5335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -5493,10 +5343,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -5513,12 +5363,12 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>41</v>
@@ -5526,13 +5376,13 @@
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="54">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -5561,9 +5411,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>43</v>
@@ -5572,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
@@ -5583,14 +5433,14 @@
         <v>45</v>
       </c>
       <c r="H7" s="62" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>1</v>
       </c>
       <c r="I7" s="55"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>46</v>
@@ -5599,7 +5449,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="50" t="s">
@@ -5612,14 +5462,14 @@
         <v>48</v>
       </c>
       <c r="H8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="55"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>46</v>
@@ -5628,7 +5478,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="50"/>
@@ -5639,16 +5489,16 @@
         <v>44</v>
       </c>
       <c r="H9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>44</v>
@@ -5657,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="53"/>
@@ -5668,16 +5518,16 @@
         <v>44</v>
       </c>
       <c r="H10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>48</v>
@@ -5686,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="53"/>
@@ -5697,14 +5547,14 @@
         <v>45</v>
       </c>
       <c r="H11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="55"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>44</v>
@@ -5713,7 +5563,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="50"/>
@@ -5724,14 +5574,14 @@
         <v>48</v>
       </c>
       <c r="H12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="55"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>43</v>
@@ -5740,7 +5590,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
@@ -5753,14 +5603,14 @@
         <v>43</v>
       </c>
       <c r="H13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="55"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>46</v>
@@ -5769,7 +5619,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="50" t="s">
@@ -5782,16 +5632,16 @@
         <v>43</v>
       </c>
       <c r="H14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>43</v>
@@ -5800,7 +5650,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
@@ -5811,14 +5661,14 @@
         <v>44</v>
       </c>
       <c r="H15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="55"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>46</v>
@@ -5827,7 +5677,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="53"/>
@@ -5838,14 +5688,14 @@
         <v>43</v>
       </c>
       <c r="H16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="55"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>48</v>
@@ -5854,7 +5704,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="53"/>
@@ -5865,14 +5715,14 @@
         <v>45</v>
       </c>
       <c r="H17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="55"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>48</v>
@@ -5881,7 +5731,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="50" t="s">
@@ -5894,14 +5744,14 @@
         <v>44</v>
       </c>
       <c r="H18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>46</v>
@@ -5910,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
@@ -5921,14 +5771,14 @@
         <v>45</v>
       </c>
       <c r="H19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="55"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>46</v>
@@ -5937,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="53"/>
@@ -5948,14 +5798,14 @@
         <v>48</v>
       </c>
       <c r="H20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="55"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>46</v>
@@ -5964,7 +5814,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="53"/>
@@ -5975,16 +5825,16 @@
         <v>44</v>
       </c>
       <c r="H21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" s="48" t="s">
         <v>56</v>
       </c>
@@ -5997,80 +5847,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="B24" s="48" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.1333333333</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" s="48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" s="48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="B28" s="48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" s="65">
         <f>(52/65) *(51/65)*(50/65)*(49/65)*(48/65)*(47/65)*(46/65)*(45/65)*(44/65)*(43/65)*(42/65)*(41/65)*(40/65)*(39/65)*(38/65)</f>
-        <v>0.003751553717</v>
+        <v>3.7515537174951856E-3</v>
       </c>
       <c r="C30" s="66">
-        <v>0.0037</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="18.86"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -6078,7 +5929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -6086,7 +5937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -6109,18 +5960,18 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="54">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
@@ -6130,7 +5981,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -6171,9 +6022,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>65</v>
@@ -6182,7 +6033,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="53"/>
@@ -6193,7 +6044,7 @@
         <v>66</v>
       </c>
       <c r="H7" s="62" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="54" t="s">
@@ -6212,9 +6063,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>36</v>
@@ -6223,7 +6074,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="50" t="s">
@@ -6236,7 +6087,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="54" t="s">
@@ -6251,9 +6102,9 @@
       <c r="L8" s="67"/>
       <c r="M8" s="67"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>65</v>
@@ -6262,7 +6113,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="53"/>
@@ -6273,7 +6124,7 @@
         <v>74</v>
       </c>
       <c r="H9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="55"/>
@@ -6282,9 +6133,9 @@
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>65</v>
@@ -6293,7 +6144,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="50" t="s">
@@ -6306,7 +6157,7 @@
         <v>66</v>
       </c>
       <c r="H10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="54" t="s">
@@ -6317,9 +6168,9 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>37</v>
@@ -6328,7 +6179,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="50" t="s">
@@ -6341,7 +6192,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="54" t="s">
@@ -6352,9 +6203,9 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>35</v>
@@ -6363,7 +6214,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="50" t="s">
@@ -6376,7 +6227,7 @@
         <v>74</v>
       </c>
       <c r="H12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="55"/>
@@ -6385,9 +6236,9 @@
       <c r="L12" s="67"/>
       <c r="M12" s="67"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>35</v>
@@ -6396,7 +6247,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
@@ -6409,7 +6260,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="55"/>
@@ -6418,9 +6269,9 @@
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>35</v>
@@ -6429,7 +6280,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="50" t="s">
@@ -6442,7 +6293,7 @@
         <v>66</v>
       </c>
       <c r="H14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="55"/>
@@ -6451,9 +6302,9 @@
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>66</v>
@@ -6462,7 +6313,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="53"/>
@@ -6473,7 +6324,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="55"/>
@@ -6482,9 +6333,9 @@
       <c r="L15" s="67"/>
       <c r="M15" s="67"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -6493,7 +6344,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="50" t="s">
@@ -6506,7 +6357,7 @@
         <v>66</v>
       </c>
       <c r="H16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="55"/>
@@ -6515,9 +6366,9 @@
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>66</v>
@@ -6526,7 +6377,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="50" t="s">
@@ -6539,7 +6390,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="55"/>
@@ -6548,9 +6399,9 @@
       <c r="L17" s="67"/>
       <c r="M17" s="67"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>37</v>
@@ -6559,7 +6410,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="53"/>
@@ -6570,7 +6421,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="55"/>
@@ -6579,9 +6430,9 @@
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>66</v>
@@ -6590,7 +6441,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="53"/>
@@ -6601,7 +6452,7 @@
         <v>65</v>
       </c>
       <c r="H19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="55"/>
@@ -6610,9 +6461,9 @@
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>35</v>
@@ -6621,7 +6472,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="53"/>
@@ -6632,7 +6483,7 @@
         <v>65</v>
       </c>
       <c r="H20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="55"/>
@@ -6641,9 +6492,9 @@
       <c r="L20" s="67"/>
       <c r="M20" s="67"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>36</v>
@@ -6652,7 +6503,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="50" t="s">
@@ -6665,7 +6516,7 @@
         <v>74</v>
       </c>
       <c r="H21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="54" t="s">
@@ -6676,11 +6527,11 @@
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>7</v>
@@ -6690,43 +6541,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.4666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="20.14"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="19.14"/>
-    <col customWidth="1" min="7" max="7" width="19.43"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -6734,7 +6586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -6742,10 +6594,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -6762,24 +6614,24 @@
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="71">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -6808,9 +6660,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>36</v>
@@ -6819,7 +6671,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="76"/>
@@ -6830,16 +6682,16 @@
         <v>37</v>
       </c>
       <c r="H7" s="78" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>65</v>
@@ -6848,7 +6700,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="75" t="s">
@@ -6861,16 +6713,16 @@
         <v>36</v>
       </c>
       <c r="H8" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>37</v>
@@ -6879,7 +6731,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="76"/>
@@ -6890,14 +6742,14 @@
         <v>65</v>
       </c>
       <c r="H9" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="79"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>36</v>
@@ -6906,7 +6758,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="76"/>
@@ -6917,16 +6769,16 @@
         <v>65</v>
       </c>
       <c r="H10" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>65</v>
@@ -6935,7 +6787,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="75" t="s">
@@ -6948,14 +6800,14 @@
         <v>65</v>
       </c>
       <c r="H11" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>65</v>
@@ -6964,7 +6816,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="76"/>
@@ -6975,14 +6827,14 @@
         <v>66</v>
       </c>
       <c r="H12" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="79"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>66</v>
@@ -6991,7 +6843,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="76"/>
@@ -7002,16 +6854,16 @@
         <v>36</v>
       </c>
       <c r="H13" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>37</v>
@@ -7020,7 +6872,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="76"/>
@@ -7031,16 +6883,16 @@
         <v>65</v>
       </c>
       <c r="H14" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="77" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>66</v>
@@ -7049,7 +6901,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="75" t="s">
@@ -7062,14 +6914,14 @@
         <v>66</v>
       </c>
       <c r="H15" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="79"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="75" t="s">
         <v>37</v>
@@ -7078,7 +6930,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="75" t="s">
@@ -7091,14 +6943,14 @@
         <v>37</v>
       </c>
       <c r="H16" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="79"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>66</v>
@@ -7107,7 +6959,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="76"/>
@@ -7118,14 +6970,14 @@
         <v>35</v>
       </c>
       <c r="H17" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="79"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>37</v>
@@ -7134,7 +6986,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="75" t="s">
@@ -7147,16 +6999,16 @@
         <v>35</v>
       </c>
       <c r="H18" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>36</v>
@@ -7165,7 +7017,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="75" t="s">
@@ -7178,14 +7030,14 @@
         <v>66</v>
       </c>
       <c r="H19" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="79"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>66</v>
@@ -7194,7 +7046,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="76"/>
@@ -7205,14 +7057,14 @@
         <v>37</v>
       </c>
       <c r="H20" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="79"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>66</v>
@@ -7221,7 +7073,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="76"/>
@@ -7232,16 +7084,16 @@
         <v>65</v>
       </c>
       <c r="H21" s="78" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I21" s="79"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>5</v>
@@ -7251,43 +7103,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.7333333333</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="19.14"/>
-    <col customWidth="1" min="7" max="7" width="19.86"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="18.0"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7295,7 +7148,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -7303,10 +7156,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -7323,12 +7176,12 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>99</v>
@@ -7336,7 +7189,7 @@
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="54">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>100</v>
@@ -7344,7 +7197,7 @@
       <c r="H5" s="52"/>
       <c r="I5" s="55"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -7373,9 +7226,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>36</v>
@@ -7384,7 +7237,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="76"/>
@@ -7395,14 +7248,14 @@
         <v>66</v>
       </c>
       <c r="H7" s="62" t="b">
-        <f t="shared" ref="H7:H22" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H22" si="1">F7=G7</f>
         <v>1</v>
       </c>
       <c r="I7" s="81"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>37</v>
@@ -7411,7 +7264,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="76"/>
@@ -7422,14 +7275,14 @@
         <v>35</v>
       </c>
       <c r="H8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="81"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>35</v>
@@ -7438,7 +7291,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="76"/>
@@ -7449,14 +7302,14 @@
         <v>74</v>
       </c>
       <c r="H9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="81"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>66</v>
@@ -7465,7 +7318,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="76"/>
@@ -7476,14 +7329,14 @@
         <v>65</v>
       </c>
       <c r="H10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="81"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>65</v>
@@ -7492,7 +7345,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="76"/>
@@ -7503,14 +7356,14 @@
         <v>74</v>
       </c>
       <c r="H11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="81"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>36</v>
@@ -7519,7 +7372,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="76"/>
@@ -7530,14 +7383,14 @@
         <v>35</v>
       </c>
       <c r="H12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="81"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>35</v>
@@ -7546,7 +7399,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="76"/>
@@ -7557,14 +7410,14 @@
         <v>74</v>
       </c>
       <c r="H13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="81"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>35</v>
@@ -7573,7 +7426,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="76"/>
@@ -7584,14 +7437,14 @@
         <v>65</v>
       </c>
       <c r="H14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="81"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>65</v>
@@ -7600,7 +7453,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="76"/>
@@ -7611,14 +7464,14 @@
         <v>66</v>
       </c>
       <c r="H15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="81"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="75" t="s">
         <v>36</v>
@@ -7627,7 +7480,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="76"/>
@@ -7638,14 +7491,14 @@
         <v>66</v>
       </c>
       <c r="H16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="81"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>37</v>
@@ -7654,7 +7507,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="76"/>
@@ -7665,14 +7518,14 @@
         <v>65</v>
       </c>
       <c r="H17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="81"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>37</v>
@@ -7681,7 +7534,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="76"/>
@@ -7692,14 +7545,14 @@
         <v>66</v>
       </c>
       <c r="H18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="81"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>65</v>
@@ -7708,7 +7561,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="76"/>
@@ -7719,14 +7572,14 @@
         <v>35</v>
       </c>
       <c r="H19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="81"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>66</v>
@@ -7735,7 +7588,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="76"/>
@@ -7746,14 +7599,14 @@
         <v>35</v>
       </c>
       <c r="H20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="81"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>66</v>
@@ -7762,7 +7615,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="76"/>
@@ -7773,12 +7626,12 @@
         <v>66</v>
       </c>
       <c r="H21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="81"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="F22" s="5" t="s">
         <v>65</v>
@@ -7787,12 +7640,12 @@
         <v>65</v>
       </c>
       <c r="H22" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="C23" s="82"/>
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
@@ -7803,82 +7656,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="C24" s="82"/>
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H24" s="64">
         <f>H23/16</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="C25" s="82"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="C26" s="82"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="C27" s="82"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="C28" s="82"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="C29" s="82"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="C30" s="82"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="C31" s="82"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="C32" s="82"/>
     </row>
-    <row r="33">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1">
       <c r="C33" s="82"/>
     </row>
-    <row r="34">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1">
       <c r="C34" s="82"/>
     </row>
-    <row r="35">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1">
       <c r="C35" s="82"/>
     </row>
-    <row r="36">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1">
       <c r="C36" s="82"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1">
       <c r="C37" s="82"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
-    <col customWidth="1" min="7" max="7" width="20.43"/>
-    <col customWidth="1" min="9" max="9" width="18.57"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7886,7 +7740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -7894,10 +7748,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -7914,24 +7768,24 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="69">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -7960,9 +7814,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>35</v>
@@ -7971,7 +7825,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="76"/>
@@ -7982,14 +7836,14 @@
         <v>68</v>
       </c>
       <c r="H7" s="86" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>1</v>
       </c>
       <c r="I7" s="87"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>37</v>
@@ -7998,7 +7852,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="76"/>
@@ -8009,14 +7863,14 @@
         <v>65</v>
       </c>
       <c r="H8" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="87"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>35</v>
@@ -8025,7 +7879,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="76"/>
@@ -8036,14 +7890,14 @@
         <v>35</v>
       </c>
       <c r="H9" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="87"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>35</v>
@@ -8052,7 +7906,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="76"/>
@@ -8063,14 +7917,14 @@
         <v>66</v>
       </c>
       <c r="H10" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="87"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>37</v>
@@ -8079,7 +7933,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="76"/>
@@ -8090,14 +7944,14 @@
         <v>68</v>
       </c>
       <c r="H11" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="87"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>36</v>
@@ -8106,7 +7960,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="76"/>
@@ -8117,14 +7971,14 @@
         <v>36</v>
       </c>
       <c r="H12" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="87"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>37</v>
@@ -8133,7 +7987,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="76"/>
@@ -8144,14 +7998,14 @@
         <v>35</v>
       </c>
       <c r="H13" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="87"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>65</v>
@@ -8160,7 +8014,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="76"/>
@@ -8171,14 +8025,14 @@
         <v>68</v>
       </c>
       <c r="H14" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="87"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>37</v>
@@ -8187,7 +8041,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="76"/>
@@ -8198,14 +8052,14 @@
         <v>65</v>
       </c>
       <c r="H15" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="87"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="75" t="s">
         <v>37</v>
@@ -8214,7 +8068,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="76"/>
@@ -8225,14 +8079,14 @@
         <v>36</v>
       </c>
       <c r="H16" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="87"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>66</v>
@@ -8241,7 +8095,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="76"/>
@@ -8252,14 +8106,14 @@
         <v>66</v>
       </c>
       <c r="H17" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="87"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>36</v>
@@ -8268,7 +8122,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="76"/>
@@ -8279,14 +8133,14 @@
         <v>35</v>
       </c>
       <c r="H18" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="87"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>36</v>
@@ -8295,7 +8149,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="76"/>
@@ -8306,14 +8160,14 @@
         <v>68</v>
       </c>
       <c r="H19" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="87"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>65</v>
@@ -8322,7 +8176,7 @@
         <v>65</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="76"/>
@@ -8333,14 +8187,14 @@
         <v>35</v>
       </c>
       <c r="H20" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="87"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>65</v>
@@ -8349,7 +8203,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="76"/>
@@ -8360,16 +8214,16 @@
         <v>65</v>
       </c>
       <c r="H21" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="87"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>14</v>
@@ -8379,43 +8233,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.9333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.6666666667</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.57"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="18.86"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -8423,7 +8278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -8431,10 +8286,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -8451,24 +8306,24 @@
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="69">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -8497,9 +8352,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>66</v>
@@ -8508,7 +8363,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="76"/>
@@ -8519,14 +8374,14 @@
         <v>36</v>
       </c>
       <c r="H7" s="86" t="b">
-        <f t="shared" ref="H7:H21" si="2">F7=G7</f>
+        <f t="shared" ref="H7:H21" si="1">F7=G7</f>
         <v>1</v>
       </c>
       <c r="I7" s="87"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>36</v>
@@ -8535,7 +8390,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="75" t="s">
@@ -8548,14 +8403,14 @@
         <v>66</v>
       </c>
       <c r="H8" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="87"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>66</v>
@@ -8564,7 +8419,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="76"/>
@@ -8575,14 +8430,14 @@
         <v>36</v>
       </c>
       <c r="H9" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="87"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>65</v>
@@ -8591,7 +8446,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="75" t="s">
@@ -8604,14 +8459,14 @@
         <v>68</v>
       </c>
       <c r="H10" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="87"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>35</v>
@@ -8620,7 +8475,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="75" t="s">
@@ -8633,14 +8488,14 @@
         <v>65</v>
       </c>
       <c r="H11" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="87"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>35</v>
@@ -8649,7 +8504,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="76"/>
@@ -8660,14 +8515,14 @@
         <v>68</v>
       </c>
       <c r="H12" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="87"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="75" t="s">
         <v>66</v>
@@ -8676,7 +8531,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="76"/>
@@ -8687,14 +8542,14 @@
         <v>66</v>
       </c>
       <c r="H13" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="87"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>65</v>
@@ -8703,7 +8558,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="75" t="s">
@@ -8716,14 +8571,14 @@
         <v>36</v>
       </c>
       <c r="H14" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I14" s="87"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>65</v>
@@ -8732,7 +8587,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="76"/>
@@ -8743,14 +8598,14 @@
         <v>66</v>
       </c>
       <c r="H15" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="87"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="75" t="s">
         <v>65</v>
@@ -8759,7 +8614,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="76"/>
@@ -8770,14 +8625,14 @@
         <v>68</v>
       </c>
       <c r="H16" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="87"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>65</v>
@@ -8786,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="75" t="s">
@@ -8799,14 +8654,14 @@
         <v>66</v>
       </c>
       <c r="H17" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17" s="87"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>35</v>
@@ -8815,7 +8670,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="75" t="s">
@@ -8828,14 +8683,14 @@
         <v>66</v>
       </c>
       <c r="H18" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I18" s="87"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>35</v>
@@ -8844,7 +8699,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="76"/>
@@ -8855,14 +8710,14 @@
         <v>68</v>
       </c>
       <c r="H19" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="87"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>36</v>
@@ -8871,7 +8726,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="75" t="s">
@@ -8884,14 +8739,14 @@
         <v>36</v>
       </c>
       <c r="H20" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="87"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>36</v>
@@ -8900,7 +8755,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="75" t="s">
@@ -8913,16 +8768,16 @@
         <v>35</v>
       </c>
       <c r="H21" s="86" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="87"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>7</v>
@@ -8932,43 +8787,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.4666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="H24" s="64">
         <f>H23/15</f>
-        <v>0.7333333333</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.43"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="7" width="17.86"/>
-    <col customWidth="1" min="8" max="8" width="18.86"/>
-    <col customWidth="1" min="9" max="10" width="12.57"/>
-    <col customWidth="1" min="11" max="11" width="16.57"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -8976,7 +8832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -8984,10 +8840,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -9006,26 +8862,26 @@
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -9058,9 +8914,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
@@ -9069,7 +8925,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="50">
@@ -9083,19 +8939,19 @@
         <v>74</v>
       </c>
       <c r="I7" s="62" t="b">
-        <f t="shared" ref="I7:I21" si="2">G7=H7</f>
+        <f t="shared" ref="I7:I21" si="1">G7=H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="54">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K7" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>65</v>
@@ -9104,7 +8960,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="50">
@@ -9118,19 +8974,19 @@
         <v>35</v>
       </c>
       <c r="I8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="54">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K8" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>66</v>
@@ -9139,11 +8995,11 @@
         <v>35</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="50">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="90" t="s">
@@ -9153,19 +9009,19 @@
         <v>35</v>
       </c>
       <c r="I9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="54">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K9" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>36</v>
@@ -9174,7 +9030,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="50">
@@ -9188,19 +9044,19 @@
         <v>66</v>
       </c>
       <c r="I10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="54">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K10" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>65</v>
@@ -9209,11 +9065,11 @@
         <v>65</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="50">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>113</v>
@@ -9225,19 +9081,19 @@
         <v>65</v>
       </c>
       <c r="I11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="54">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K11" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>65</v>
@@ -9246,11 +9102,11 @@
         <v>36</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="50">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="90" t="s">
@@ -9260,19 +9116,19 @@
         <v>35</v>
       </c>
       <c r="I12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="54">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K12" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>66</v>
@@ -9281,11 +9137,11 @@
         <v>35</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="50">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="90" t="s">
@@ -9295,19 +9151,19 @@
         <v>65</v>
       </c>
       <c r="I13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="54">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K13" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>66</v>
@@ -9316,11 +9172,11 @@
         <v>35</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="50">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="90" t="s">
@@ -9330,19 +9186,19 @@
         <v>74</v>
       </c>
       <c r="I14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="54">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K14" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="89" t="s">
         <v>65</v>
@@ -9351,11 +9207,11 @@
         <v>37</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="50">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="90" t="s">
@@ -9365,19 +9221,19 @@
         <v>35</v>
       </c>
       <c r="I15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="54">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K15" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>37</v>
@@ -9386,11 +9242,11 @@
         <v>66</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="50">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="90" t="s">
@@ -9400,19 +9256,19 @@
         <v>65</v>
       </c>
       <c r="I16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="54">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K16" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>36</v>
@@ -9421,11 +9277,11 @@
         <v>36</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="50">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="90" t="s">
@@ -9435,19 +9291,19 @@
         <v>74</v>
       </c>
       <c r="I17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="54">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K17" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="89" t="s">
         <v>37</v>
@@ -9456,11 +9312,11 @@
         <v>37</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="50">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="90" t="s">
@@ -9470,19 +9326,19 @@
         <v>35</v>
       </c>
       <c r="I18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="54">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K18" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="89" t="s">
         <v>65</v>
@@ -9491,11 +9347,11 @@
         <v>65</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="50">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="90" t="s">
@@ -9505,19 +9361,19 @@
         <v>66</v>
       </c>
       <c r="I19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="54">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K19" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="89" t="s">
         <v>35</v>
@@ -9526,11 +9382,11 @@
         <v>35</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="50">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="90" t="s">
@@ -9540,19 +9396,19 @@
         <v>35</v>
       </c>
       <c r="I20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="54">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K20" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="89" t="s">
         <v>36</v>
@@ -9561,11 +9417,11 @@
         <v>37</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="50">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="90" t="s">
@@ -9575,19 +9431,19 @@
         <v>74</v>
       </c>
       <c r="I21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="54">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K21" s="55"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="I22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>5</v>
@@ -9597,10 +9453,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
-        <v>0.3333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I24" s="64">
         <f>I23/15</f>
@@ -9608,34 +9464,37 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="8" width="19.43"/>
-    <col customWidth="1" min="9" max="10" width="12.57"/>
-    <col customWidth="1" min="11" max="11" width="18.0"/>
-    <col customWidth="1" min="12" max="12" width="19.57"/>
-    <col customWidth="1" min="13" max="13" width="20.57"/>
-    <col customWidth="1" min="16" max="16" width="19.14"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -9643,7 +9502,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -9651,10 +9510,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -9680,33 +9539,33 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="50">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="55"/>
       <c r="L5" s="69">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
       <c r="O5" s="67"/>
       <c r="P5" s="67"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -9756,9 +9615,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="60">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>66</v>
@@ -9767,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="61" t="b">
-        <f t="shared" ref="D7:D21" si="1">B7=C7</f>
+        <f t="shared" ref="D7:D21" si="0">B7=C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="50">
@@ -9781,7 +9640,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="62" t="b">
-        <f t="shared" ref="I7:I21" si="2">G7=H7</f>
+        <f t="shared" ref="I7:I21" si="1">G7=H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="54">
@@ -9789,25 +9648,25 @@
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="N7" s="86" t="b">
-        <f t="shared" ref="N7:N21" si="3">L7=M7</f>
+        <f t="shared" ref="N7:N21" si="2">L7=M7</f>
         <v>0</v>
       </c>
       <c r="O7" s="69">
         <v>5.55</v>
       </c>
       <c r="P7" s="69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="60">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>65</v>
@@ -9816,11 +9675,11 @@
         <v>65</v>
       </c>
       <c r="D8" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="50">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="90" t="s">
@@ -9830,7 +9689,7 @@
         <v>66</v>
       </c>
       <c r="I8" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="54">
@@ -9838,25 +9697,25 @@
       </c>
       <c r="K8" s="55"/>
       <c r="L8" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M8" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N8" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O8" s="69">
         <v>1.45</v>
       </c>
       <c r="P8" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="60">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>37</v>
@@ -9865,7 +9724,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="50">
@@ -9879,7 +9738,7 @@
         <v>65</v>
       </c>
       <c r="I9" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="54">
@@ -9887,25 +9746,25 @@
       </c>
       <c r="K9" s="55"/>
       <c r="L9" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="M9" s="69" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="N9" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="69">
         <v>7.31</v>
       </c>
       <c r="P9" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="60">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>65</v>
@@ -9914,7 +9773,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="50">
@@ -9928,7 +9787,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="54">
@@ -9936,25 +9795,25 @@
       </c>
       <c r="K10" s="55"/>
       <c r="L10" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="M10" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N10" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="69">
         <v>13.17</v>
       </c>
       <c r="P10" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="60">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>65</v>
@@ -9963,7 +9822,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="50">
@@ -9977,33 +9836,33 @@
         <v>35</v>
       </c>
       <c r="I11" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="54">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="K11" s="55"/>
       <c r="L11" s="69" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="M11" s="69" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="N11" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O11" s="69">
         <v>2.87</v>
       </c>
       <c r="P11" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>35</v>
@@ -10012,11 +9871,11 @@
         <v>65</v>
       </c>
       <c r="D12" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="50">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="90" t="s">
@@ -10026,35 +9885,35 @@
         <v>74</v>
       </c>
       <c r="I12" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="54">
         <v>3.13</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L12" s="69" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N12" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="69">
         <v>7.75</v>
       </c>
       <c r="P12" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="60">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>35</v>
@@ -10063,7 +9922,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="50">
@@ -10077,35 +9936,35 @@
         <v>66</v>
       </c>
       <c r="I13" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="54">
         <v>2.25</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L13" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N13" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="69">
         <v>3.11</v>
       </c>
       <c r="P13" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="60">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>35</v>
@@ -10114,7 +9973,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="50">
@@ -10128,35 +9987,35 @@
         <v>74</v>
       </c>
       <c r="I14" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="54">
         <v>1.86</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L14" s="69" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="N14" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="69">
         <v>3.67</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="60">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="89" t="s">
         <v>36</v>
@@ -10165,7 +10024,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="50">
@@ -10179,35 +10038,35 @@
         <v>35</v>
       </c>
       <c r="I15" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="54">
         <v>1.27</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="N15" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="69">
         <v>5.01</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="60">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>35</v>
@@ -10216,7 +10075,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="50">
@@ -10230,35 +10089,35 @@
         <v>65</v>
       </c>
       <c r="I16" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="54">
         <v>2.38</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N16" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O16" s="69">
         <v>7.02</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="60">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>37</v>
@@ -10267,7 +10126,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="50">
@@ -10281,7 +10140,7 @@
         <v>35</v>
       </c>
       <c r="I17" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="54">
@@ -10289,25 +10148,25 @@
       </c>
       <c r="K17" s="55"/>
       <c r="L17" s="69" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="M17" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N17" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="69">
         <v>8.32</v>
       </c>
       <c r="P17" s="69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="60">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B18" s="89" t="s">
         <v>37</v>
@@ -10316,7 +10175,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="50">
@@ -10330,35 +10189,35 @@
         <v>74</v>
       </c>
       <c r="I18" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="54">
         <v>2.21</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N18" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O18" s="69">
         <v>10.6</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="60">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B19" s="89" t="s">
         <v>65</v>
@@ -10367,11 +10226,11 @@
         <v>66</v>
       </c>
       <c r="D19" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="50">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="90" t="s">
@@ -10381,35 +10240,35 @@
         <v>35</v>
       </c>
       <c r="I19" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="54">
         <v>14.57</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="M19" s="69" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="N19" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="69">
         <v>11.09</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="60">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B20" s="89" t="s">
         <v>36</v>
@@ -10418,14 +10277,14 @@
         <v>36</v>
       </c>
       <c r="D20" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="50">
         <v>3.84</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G20" s="90" t="s">
         <v>35</v>
@@ -10434,33 +10293,33 @@
         <v>35</v>
       </c>
       <c r="I20" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="54">
-        <v>16.35</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="K20" s="55"/>
       <c r="L20" s="69" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="M20" s="69" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="N20" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="69">
         <v>14.74</v>
       </c>
       <c r="P20" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="60">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B21" s="89" t="s">
         <v>36</v>
@@ -10469,7 +10328,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="50">
@@ -10483,7 +10342,7 @@
         <v>66</v>
       </c>
       <c r="I21" s="62" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21" s="54">
@@ -10491,28 +10350,28 @@
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M21" s="69" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N21" s="86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O21" s="69">
         <v>3.73</v>
       </c>
       <c r="P21" s="69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="I22" s="63"/>
       <c r="N22" s="63"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="D23" s="64">
         <f>COUNTIF(D7:D21,TRUE)</f>
         <v>6</v>
@@ -10526,14 +10385,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="D24" s="64">
         <f>D23/15</f>
         <v>0.4</v>
       </c>
       <c r="I24" s="64">
         <f>I23/15</f>
-        <v>0.5333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="N24" s="64">
         <f>N23/15</f>
@@ -10541,6 +10400,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ScienceSaturday07/raw_data.xlsx
+++ b/ScienceSaturday07/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr1015bob/temp/ScienceSaturday/ScienceSaturday07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA6789-457E-A54A-9F40-7AEB3987D2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D4D03D-635E-414E-80D8-6756DCCE284F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="173">
   <si>
     <t>Guesser</t>
   </si>
@@ -534,13 +534,31 @@
   </si>
   <si>
     <t>not confident</t>
+  </si>
+  <si>
+    <t>Sour patch kids</t>
+  </si>
+  <si>
+    <t>if red is an option then it's red</t>
+  </si>
+  <si>
+    <t>water break. let me pour myself more rum</t>
+  </si>
+  <si>
+    <t>idk it didn't really taste like anything</t>
+  </si>
+  <si>
+    <t>for sure, if it's not orange then i screwed up</t>
+  </si>
+  <si>
+    <t>torn between yellow and green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -590,8 +608,21 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +701,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF40FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -698,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -860,12 +897,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5311,9 +5355,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5327,7 +5373,7 @@
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -5335,7 +5381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -5343,10 +5389,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
@@ -5362,8 +5408,14 @@
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J4" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
         <v>9</v>
       </c>
@@ -5381,8 +5433,14 @@
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="55"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J5" s="107">
+        <v>4</v>
+      </c>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
@@ -5410,8 +5468,20 @@
       <c r="I6" s="58" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J6" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="60">
         <v>1</v>
       </c>
@@ -5437,8 +5507,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="55"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J7" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="60">
         <v>2</v>
       </c>
@@ -5466,8 +5546,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J8" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="107"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="60">
         <v>3</v>
       </c>
@@ -5495,8 +5585,20 @@
       <c r="I9" s="54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J9" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="60">
         <v>4</v>
       </c>
@@ -5524,8 +5626,20 @@
       <c r="I10" s="54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J10" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="60">
         <v>5</v>
       </c>
@@ -5551,8 +5665,18 @@
         <v>1</v>
       </c>
       <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J11" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="60">
         <v>6</v>
       </c>
@@ -5578,8 +5702,18 @@
         <v>1</v>
       </c>
       <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J12" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="107"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="60">
         <v>7</v>
       </c>
@@ -5607,8 +5741,20 @@
         <v>1</v>
       </c>
       <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J13" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="60">
         <v>8</v>
       </c>
@@ -5638,8 +5784,18 @@
       <c r="I14" s="54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J14" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="107"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="60">
         <v>9</v>
       </c>
@@ -5665,8 +5821,18 @@
         <v>1</v>
       </c>
       <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J15" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="107"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="60">
         <v>10</v>
       </c>
@@ -5692,8 +5858,20 @@
         <v>1</v>
       </c>
       <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J16" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="60">
         <v>11</v>
       </c>
@@ -5719,8 +5897,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J17" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="107"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="60">
         <v>12</v>
       </c>
@@ -5748,8 +5936,18 @@
         <v>1</v>
       </c>
       <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J18" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="107"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="60">
         <v>13</v>
       </c>
@@ -5775,8 +5973,18 @@
         <v>1</v>
       </c>
       <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J19" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="107"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="60">
         <v>14</v>
       </c>
@@ -5802,8 +6010,20 @@
         <v>1</v>
       </c>
       <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J20" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="60">
         <v>15</v>
       </c>
@@ -5829,12 +6049,22 @@
         <v>0</v>
       </c>
       <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J21" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="107"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="D22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="B23" s="48" t="s">
         <v>56</v>
       </c>
@@ -5847,7 +6077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="B24" s="48" t="s">
         <v>57</v>
       </c>
@@ -5860,32 +6090,32 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="B25" s="48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="B26" s="48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="B27" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="B28" s="48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="B30" s="65">
         <f>(52/65) *(51/65)*(50/65)*(49/65)*(48/65)*(47/65)*(46/65)*(45/65)*(44/65)*(43/65)*(42/65)*(41/65)*(40/65)*(39/65)*(38/65)</f>
         <v>3.7515537174951856E-3</v>
@@ -9475,7 +9705,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
